--- a/biology/Médecine/Pierre_Joseph_Teissier/Pierre_Joseph_Teissier.xlsx
+++ b/biology/Médecine/Pierre_Joseph_Teissier/Pierre_Joseph_Teissier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Joseph Teissier, né à Paris le 26 janvier 1864 et mort dans la même ville le 1er avril 1932, est un médecin français connu pour la rédaction d'un important « Nouveau Traité de médecine » avec Georges Henri Roger et Fernand Widal[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Joseph Teissier, né à Paris le 26 janvier 1864 et mort dans la même ville le 1er avril 1932, est un médecin français connu pour la rédaction d'un important « Nouveau Traité de médecine » avec Georges Henri Roger et Fernand Widal.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils d'un négociant, Jean-Pierre Teissier, et de Marie Alexandrine Amélie Clavé[2].
-Il commence ses études médicales à Bordeaux et les termine à Paris. Il passe sa thèse en 1894 sur « les lésions de l'endocarde chez les tuberculeux[3]. » Il est nommé professeur agrégé à la Faculté de médecine de Paris en 1897, médecin des hôpitaux en 1899 enfin professeur de pathologie interne puis de clinique des maladies infantiles de la Faculté de médecine de Paris[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d'un négociant, Jean-Pierre Teissier, et de Marie Alexandrine Amélie Clavé.
+Il commence ses études médicales à Bordeaux et les termine à Paris. Il passe sa thèse en 1894 sur « les lésions de l'endocarde chez les tuberculeux. » Il est nommé professeur agrégé à la Faculté de médecine de Paris en 1897, médecin des hôpitaux en 1899 enfin professeur de pathologie interne puis de clinique des maladies infantiles de la Faculté de médecine de Paris.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouveau Traité de médecine en 24 volumes.
-À partir de 1899, il dirige la partie « Pathologie Générale » du Journal de Physiologie et de Pathologie Générale fondé par Charles Bouchard[5].</t>
+À partir de 1899, il dirige la partie « Pathologie Générale » du Journal de Physiologie et de Pathologie Générale fondé par Charles Bouchard.</t>
         </is>
       </c>
     </row>
@@ -574,15 +590,17 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de Guerre 1914-1918.
  Officier de l'ordre des Palmes académiques.
-Légion d'honneur[2] :
+Légion d'honneur :
  Chevalier le 13 janvier 1909.
  Officier le 18 février 1916.
  Commandeur le 13 août 1924.
-Il est élu membre de l'Académie de médecine le 19 mars 1918[6].</t>
+Il est élu membre de l'Académie de médecine le 19 mars 1918.</t>
         </is>
       </c>
     </row>
